--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +1029,1059 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112038148</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>658</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>562332.0260024283</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7307761.242099251</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112038121</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>562313.4042944111</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7307732.191837165</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112038209</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>562326.1318858962</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7307824.949321065</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112038197</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>562332.0260024283</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7307761.242099251</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112038104</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>562291.6665034146</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7307714.531584828</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112038198</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>562332.0260024283</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7307761.242099251</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112038107</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>562291.6665034146</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7307714.531584828</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112038127</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>562313.4042944111</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7307732.191837165</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112038151</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>562332.0260024283</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7307761.242099251</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038148</v>
+        <v>112038104</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>562332.0260024283</v>
+        <v>562291.6665034146</v>
       </c>
       <c r="R5" t="n">
-        <v>7307761.242099251</v>
+        <v>7307714.531584828</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038121</v>
+        <v>112038198</v>
       </c>
       <c r="B6" t="n">
         <v>89423</v>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562313.4042944111</v>
+        <v>562332.0260024283</v>
       </c>
       <c r="R6" t="n">
-        <v>7307732.191837165</v>
+        <v>7307761.242099251</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038209</v>
+        <v>112038127</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,31 +1279,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1311,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>562326.1318858962</v>
+        <v>562313.4042944111</v>
       </c>
       <c r="R7" t="n">
-        <v>7307824.949321065</v>
+        <v>7307732.191837165</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1359,17 +1354,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1388,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038197</v>
+        <v>112038121</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1395,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1431,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562332.0260024283</v>
+        <v>562313.4042944111</v>
       </c>
       <c r="R8" t="n">
-        <v>7307761.242099251</v>
+        <v>7307732.191837165</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1504,10 +1495,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038104</v>
+        <v>112038209</v>
       </c>
       <c r="B9" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,26 +1511,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1547,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562291.6665034146</v>
+        <v>562326.1318858962</v>
       </c>
       <c r="R9" t="n">
-        <v>7307714.531584828</v>
+        <v>7307824.949321065</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1595,13 +1591,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038198</v>
+        <v>112038151</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1636,21 +1636,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038127</v>
+        <v>112038148</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1868,21 +1868,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562313.4042944111</v>
+        <v>562332.0260024283</v>
       </c>
       <c r="R12" t="n">
-        <v>7307732.191837165</v>
+        <v>7307761.242099251</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038151</v>
+        <v>112038197</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1984,21 +1984,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038104</v>
+        <v>112038127</v>
       </c>
       <c r="B5" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>562291.6665034146</v>
+        <v>562313.4042944111</v>
       </c>
       <c r="R5" t="n">
-        <v>7307714.531584828</v>
+        <v>7307732.191837165</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038198</v>
+        <v>112038104</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,21 +1163,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562332.0260024283</v>
+        <v>562291.6665034146</v>
       </c>
       <c r="R6" t="n">
-        <v>7307761.242099251</v>
+        <v>7307714.531584828</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038127</v>
+        <v>112038197</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>562313.4042944111</v>
+        <v>562332.0260024283</v>
       </c>
       <c r="R7" t="n">
-        <v>7307732.191837165</v>
+        <v>7307761.242099251</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038121</v>
+        <v>112038151</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,21 +1395,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562313.4042944111</v>
+        <v>562332.0260024283</v>
       </c>
       <c r="R8" t="n">
-        <v>7307732.191837165</v>
+        <v>7307761.242099251</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038209</v>
+        <v>112038107</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,31 +1511,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1543,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562326.1318858962</v>
+        <v>562291.6665034146</v>
       </c>
       <c r="R9" t="n">
-        <v>7307824.949321065</v>
+        <v>7307714.531584828</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1591,17 +1586,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1620,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038151</v>
+        <v>112038121</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1636,21 +1627,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1663,10 +1654,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562332.0260024283</v>
+        <v>562313.4042944111</v>
       </c>
       <c r="R10" t="n">
-        <v>7307761.242099251</v>
+        <v>7307732.191837165</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1736,10 +1727,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038107</v>
+        <v>112038209</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1752,26 +1743,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1779,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562291.6665034146</v>
+        <v>562326.1318858962</v>
       </c>
       <c r="R11" t="n">
-        <v>7307714.531584828</v>
+        <v>7307824.949321065</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1827,13 +1823,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038197</v>
+        <v>112038198</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1984,21 +1984,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1147,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038104</v>
+        <v>112038121</v>
       </c>
       <c r="B6" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,21 +1163,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562291.6665034146</v>
+        <v>562313.4042944111</v>
       </c>
       <c r="R6" t="n">
-        <v>7307714.531584828</v>
+        <v>7307732.191837165</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038151</v>
+        <v>112038104</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,21 +1395,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562332.0260024283</v>
+        <v>562291.6665034146</v>
       </c>
       <c r="R8" t="n">
-        <v>7307761.242099251</v>
+        <v>7307714.531584828</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038107</v>
+        <v>112038198</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562291.6665034146</v>
+        <v>562332.0260024283</v>
       </c>
       <c r="R9" t="n">
-        <v>7307714.531584828</v>
+        <v>7307761.242099251</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038121</v>
+        <v>112038209</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,26 +1627,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1654,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562313.4042944111</v>
+        <v>562326.1318858962</v>
       </c>
       <c r="R10" t="n">
-        <v>7307732.191837165</v>
+        <v>7307824.949321065</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1702,13 +1707,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1727,10 +1736,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038209</v>
+        <v>112038151</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,31 +1752,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1775,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562326.1318858962</v>
+        <v>562332.0260024283</v>
       </c>
       <c r="R11" t="n">
-        <v>7307824.949321065</v>
+        <v>7307761.242099251</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1823,17 +1827,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038198</v>
+        <v>112038107</v>
       </c>
       <c r="B13" t="n">
         <v>89423</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562332.0260024283</v>
+        <v>562291.6665034146</v>
       </c>
       <c r="R13" t="n">
-        <v>7307761.242099251</v>
+        <v>7307714.531584828</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038127</v>
+        <v>112038197</v>
       </c>
       <c r="B5" t="n">
         <v>77515</v>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>562313.4042944111</v>
+        <v>562332</v>
       </c>
       <c r="R5" t="n">
-        <v>7307732.191837165</v>
+        <v>7307761</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1107,19 +1107,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1147,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038121</v>
+        <v>112038151</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562313.4042944111</v>
+        <v>562332</v>
       </c>
       <c r="R6" t="n">
-        <v>7307732.191837165</v>
+        <v>7307761</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,19 +1213,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1263,7 +1243,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038197</v>
+        <v>112038127</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1306,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>562332.0260024283</v>
+        <v>562313</v>
       </c>
       <c r="R7" t="n">
-        <v>7307761.242099251</v>
+        <v>7307732</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1339,19 +1319,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1379,10 +1349,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038104</v>
+        <v>112038107</v>
       </c>
       <c r="B8" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,21 +1365,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562291.6665034146</v>
+        <v>562292</v>
       </c>
       <c r="R8" t="n">
-        <v>7307714.531584828</v>
+        <v>7307715</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1455,19 +1425,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1538,10 +1498,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562332.0260024283</v>
+        <v>562332</v>
       </c>
       <c r="R9" t="n">
-        <v>7307761.242099251</v>
+        <v>7307761</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1571,19 +1531,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1611,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038209</v>
+        <v>112038104</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,31 +1577,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1659,10 +1604,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562326.1318858962</v>
+        <v>562292</v>
       </c>
       <c r="R10" t="n">
-        <v>7307824.949321065</v>
+        <v>7307715</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1692,32 +1637,18 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1736,10 +1667,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038151</v>
+        <v>112038148</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1752,21 +1683,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,10 +1710,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562332.0260024283</v>
+        <v>562332</v>
       </c>
       <c r="R11" t="n">
-        <v>7307761.242099251</v>
+        <v>7307761</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,19 +1743,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1852,10 +1773,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038148</v>
+        <v>112038121</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1868,21 +1789,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1895,10 +1816,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562332.0260024283</v>
+        <v>562313</v>
       </c>
       <c r="R12" t="n">
-        <v>7307761.242099251</v>
+        <v>7307732</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1928,19 +1849,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1968,10 +1879,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038107</v>
+        <v>112038209</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1984,26 +1895,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2011,10 +1927,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562291.6665034146</v>
+        <v>562326</v>
       </c>
       <c r="R13" t="n">
-        <v>7307714.531584828</v>
+        <v>7307825</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2044,19 +1960,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2065,7 +1976,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1034,7 +1034,7 @@
         <v>112038197</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038151</v>
+        <v>112038104</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562332</v>
+        <v>562292</v>
       </c>
       <c r="R6" t="n">
-        <v>7307761</v>
+        <v>7307715</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038127</v>
+        <v>112038148</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>89820</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>562313</v>
+        <v>562332</v>
       </c>
       <c r="R7" t="n">
-        <v>7307732</v>
+        <v>7307761</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038107</v>
+        <v>112038198</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562292</v>
+        <v>562332</v>
       </c>
       <c r="R8" t="n">
-        <v>7307715</v>
+        <v>7307761</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038198</v>
+        <v>112038127</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>77636</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1471,21 +1471,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562332</v>
+        <v>562313</v>
       </c>
       <c r="R9" t="n">
-        <v>7307761</v>
+        <v>7307732</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038104</v>
+        <v>112038209</v>
       </c>
       <c r="B10" t="n">
-        <v>89401</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1577,26 +1577,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1604,10 +1609,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562292</v>
+        <v>562326</v>
       </c>
       <c r="R10" t="n">
-        <v>7307715</v>
+        <v>7307825</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1642,13 +1647,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1667,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038148</v>
+        <v>112038107</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>89557</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1683,21 +1692,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1710,10 +1719,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562332</v>
+        <v>562292</v>
       </c>
       <c r="R11" t="n">
-        <v>7307761</v>
+        <v>7307715</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1773,10 +1782,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038121</v>
+        <v>112038151</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>89539</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1789,21 +1798,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1816,10 +1825,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562313</v>
+        <v>562332</v>
       </c>
       <c r="R12" t="n">
-        <v>7307732</v>
+        <v>7307761</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1879,10 +1888,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038209</v>
+        <v>112038121</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1895,31 +1904,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1927,10 +1931,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562326</v>
+        <v>562313</v>
       </c>
       <c r="R13" t="n">
-        <v>7307825</v>
+        <v>7307732</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1965,17 +1969,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038197</v>
+        <v>112038104</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>89549</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>562332</v>
+        <v>562292</v>
       </c>
       <c r="R5" t="n">
-        <v>7307761</v>
+        <v>7307715</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038104</v>
+        <v>112038121</v>
       </c>
       <c r="B6" t="n">
-        <v>89535</v>
+        <v>89571</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562292</v>
+        <v>562313</v>
       </c>
       <c r="R6" t="n">
-        <v>7307715</v>
+        <v>7307732</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038148</v>
+        <v>112038197</v>
       </c>
       <c r="B7" t="n">
-        <v>89820</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038198</v>
+        <v>112038148</v>
       </c>
       <c r="B8" t="n">
-        <v>89557</v>
+        <v>89834</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,21 +1365,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038127</v>
+        <v>112038151</v>
       </c>
       <c r="B9" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1471,21 +1471,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562313</v>
+        <v>562332</v>
       </c>
       <c r="R9" t="n">
-        <v>7307732</v>
+        <v>7307761</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038209</v>
+        <v>112038107</v>
       </c>
       <c r="B10" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1577,31 +1577,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1609,10 +1604,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562326</v>
+        <v>562292</v>
       </c>
       <c r="R10" t="n">
-        <v>7307825</v>
+        <v>7307715</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,17 +1642,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1676,10 +1667,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038107</v>
+        <v>112038127</v>
       </c>
       <c r="B11" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1692,21 +1683,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1719,10 +1710,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562292</v>
+        <v>562313</v>
       </c>
       <c r="R11" t="n">
-        <v>7307715</v>
+        <v>7307732</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1782,10 +1773,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038151</v>
+        <v>112038209</v>
       </c>
       <c r="B12" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1798,26 +1789,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1825,10 +1821,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562332</v>
+        <v>562326</v>
       </c>
       <c r="R12" t="n">
-        <v>7307761</v>
+        <v>7307825</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1863,13 +1859,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038121</v>
+        <v>112038198</v>
       </c>
       <c r="B13" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562313</v>
+        <v>562332</v>
       </c>
       <c r="R13" t="n">
-        <v>7307732</v>
+        <v>7307761</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038121</v>
+        <v>112038197</v>
       </c>
       <c r="B6" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562313</v>
+        <v>562332</v>
       </c>
       <c r="R6" t="n">
-        <v>7307732</v>
+        <v>7307761</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038197</v>
+        <v>112038151</v>
       </c>
       <c r="B7" t="n">
-        <v>77650</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038148</v>
+        <v>112038209</v>
       </c>
       <c r="B8" t="n">
-        <v>89834</v>
+        <v>56430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,26 +1365,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1392,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562332</v>
+        <v>562326</v>
       </c>
       <c r="R8" t="n">
-        <v>7307761</v>
+        <v>7307825</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1430,13 +1435,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1455,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038151</v>
+        <v>112038198</v>
       </c>
       <c r="B9" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1471,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1561,10 +1570,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038107</v>
+        <v>112038127</v>
       </c>
       <c r="B10" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1577,21 +1586,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1604,10 +1613,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562292</v>
+        <v>562313</v>
       </c>
       <c r="R10" t="n">
-        <v>7307715</v>
+        <v>7307732</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1667,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038127</v>
+        <v>112038107</v>
       </c>
       <c r="B11" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1683,21 +1692,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1710,10 +1719,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562313</v>
+        <v>562292</v>
       </c>
       <c r="R11" t="n">
-        <v>7307732</v>
+        <v>7307715</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1773,10 +1782,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038209</v>
+        <v>112038121</v>
       </c>
       <c r="B12" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1789,31 +1798,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1821,10 +1825,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562326</v>
+        <v>562313</v>
       </c>
       <c r="R12" t="n">
-        <v>7307825</v>
+        <v>7307732</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1859,17 +1863,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038198</v>
+        <v>112038148</v>
       </c>
       <c r="B13" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1904,21 +1904,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>

--- a/artfynd/A 50916-2022.xlsx
+++ b/artfynd/A 50916-2022.xlsx
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038104</v>
+        <v>112038107</v>
       </c>
       <c r="B5" t="n">
-        <v>89549</v>
+        <v>89571</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038197</v>
+        <v>112038127</v>
       </c>
       <c r="B6" t="n">
         <v>77650</v>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562332</v>
+        <v>562313</v>
       </c>
       <c r="R6" t="n">
-        <v>7307761</v>
+        <v>7307732</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038151</v>
+        <v>112038197</v>
       </c>
       <c r="B7" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038209</v>
+        <v>112038148</v>
       </c>
       <c r="B8" t="n">
-        <v>56430</v>
+        <v>89834</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,31 +1365,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1397,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>562326</v>
+        <v>562332</v>
       </c>
       <c r="R8" t="n">
-        <v>7307825</v>
+        <v>7307761</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1435,17 +1430,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1464,10 +1455,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038198</v>
+        <v>112038209</v>
       </c>
       <c r="B9" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,26 +1471,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1507,10 +1503,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562332</v>
+        <v>562326</v>
       </c>
       <c r="R9" t="n">
-        <v>7307761</v>
+        <v>7307825</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1545,13 +1541,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038127</v>
+        <v>112038104</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1586,21 +1586,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562313</v>
+        <v>562292</v>
       </c>
       <c r="R10" t="n">
-        <v>7307732</v>
+        <v>7307715</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038107</v>
+        <v>112038121</v>
       </c>
       <c r="B11" t="n">
         <v>89571</v>
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562292</v>
+        <v>562313</v>
       </c>
       <c r="R11" t="n">
-        <v>7307715</v>
+        <v>7307732</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038121</v>
+        <v>112038198</v>
       </c>
       <c r="B12" t="n">
         <v>89571</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562313</v>
+        <v>562332</v>
       </c>
       <c r="R12" t="n">
-        <v>7307732</v>
+        <v>7307761</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038148</v>
+        <v>112038151</v>
       </c>
       <c r="B13" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1904,21 +1904,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
